--- a/GameDetail.xlsx
+++ b/GameDetail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20358"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityClassProject\3D-RPG-Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3D動畫\期末專案\3D-RPG-Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3357D5-2E50-48E3-8985-BB65D41F89FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C9C5D6-E836-414F-83ED-8F30F0C0B1DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20268" yWindow="144" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20265" yWindow="150" windowWidth="20370" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -368,12 +368,12 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -381,15 +381,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>

--- a/GameDetail.xlsx
+++ b/GameDetail.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20358"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3D動畫\期末專案\3D-RPG-Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\3D電腦動畫Final Project\3D-RPG-Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C9C5D6-E836-414F-83ED-8F30F0C0B1DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20265" yWindow="150" windowWidth="20370" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20268" yWindow="156" windowWidth="20376" windowHeight="12216"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,28 +24,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>血量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneMon</t>
+  </si>
+  <si>
+    <t>Slime</t>
+  </si>
+  <si>
+    <t>Golem</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>Kumata</t>
+  </si>
+  <si>
+    <t>BOSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗騎士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warrior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>攻擊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>玩家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物</t>
+    <t>傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丟石頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金幣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衝刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>噴火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/顆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/粒子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斬擊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳躍斬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迴旋斬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量彈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷射炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4/粒子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergyObj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -83,8 +213,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -364,37 +497,221 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="C6">
+        <v>300</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="M7">
         <v>100</v>
       </c>
-      <c r="C2">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>600</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>1300</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13">
+        <v>20</v>
+      </c>
+      <c r="M13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>1500</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>

--- a/GameDetail.xlsx
+++ b/GameDetail.xlsx
@@ -501,7 +501,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -567,6 +567,9 @@
       <c r="D6">
         <v>10</v>
       </c>
+      <c r="M6">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
@@ -579,7 +582,7 @@
         <v>10</v>
       </c>
       <c r="M7">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -603,6 +606,9 @@
       </c>
       <c r="I8">
         <v>20</v>
+      </c>
+      <c r="M8">
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">

--- a/GameDetail.xlsx
+++ b/GameDetail.xlsx
@@ -501,7 +501,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -635,7 +635,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>23</v>
@@ -667,7 +667,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>29</v>
